--- a/biology/Zoologie/Eirenis_punctatolineatus/Eirenis_punctatolineatus.xlsx
+++ b/biology/Zoologie/Eirenis_punctatolineatus/Eirenis_punctatolineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eirenis punctatolineatus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eirenis punctatolineatus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le sud de l'Arménie ;
 dans le Sud-Est et le Sud-Ouest de l'Azerbaïdjan ;
 en Ciscaucasie ;
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Schmidt indique que le spécimen en sa possession mesure environ 40 cm dont 10 cm de queue. Son dos est brun gris et sa face ventrale plus pâle.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Schmidt indique que le spécimen en sa possession mesure environ 40 cm dont 10 cm de queue. Son dos est brun gris et sa face ventrale plus pâle.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (19 décembre 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (19 décembre 2013) :
 Eirenis punctatolineatus condoni (Boulenger, 1920)
 Eirenis punctatolineatus punctatolineatus (Boettger, 1892)</t>
         </is>
@@ -610,7 +628,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boettger, 1892 : Kriechthiere der Kaukasusländer, gesammelt durch die Radde-Valentin’sche Expedition nach dem Karabagh und durch die Herren Dr J. Valentin un P. Reibisch. Bericht über die Senckenbergische Naturforschende Gesellschaft in Frankfurt am Main, vol. 1892, p. 131-150.
 Boulenger, 1920 : Description of a new snake of the genus Contia, B. &amp; G., from Persia. Journal of the Bombay Natural History Society, vol. 26, p. 1024 (texte intégral).
